--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelcosta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelcosta/Documents/GitHub/SE2223_59797_60441_60677_60816_60971/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537DD520-FC2E-7D47-9275-DD1F60B414B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A476660-2C34-7145-BB00-4A55B39E6E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -295,11 +295,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9803778C-B6E5-564F-9B1C-009D4D7C451A}">
   <dimension ref="E2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,18 +715,18 @@
     </row>
     <row r="5" spans="5:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E5" s="11"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="5:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E6" s="11"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="5:8" ht="34" x14ac:dyDescent="0.2">
@@ -730,18 +746,18 @@
       </c>
     </row>
     <row r="9" spans="5:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="5:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="13"/>
     </row>

--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelcosta/Documents/GitHub/SE2223_59797_60441_60677_60816_60971/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A476660-2C34-7145-BB00-4A55B39E6E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7D6B36-1E7A-A547-82E9-B737C22359A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9803778C-B6E5-564F-9B1C-009D4D7C451A}">
   <dimension ref="E2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,36 +749,36 @@
       </c>
     </row>
     <row r="9" spans="5:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="E9" s="11"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="7"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="5:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="E10" s="11"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="5:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="5:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="5:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E13" s="15" t="s">

--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelcosta/Documents/GitHub/SE2223_59797_60441_60677_60816_60971/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7D6B36-1E7A-A547-82E9-B737C22359A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5836A0-CC52-4A41-BE48-EFEFBEC85A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,9 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9803778C-B6E5-564F-9B1C-009D4D7C451A}">
   <dimension ref="E2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="E5:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,23 +748,23 @@
     <row r="9" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E10" s="7"/>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="5:8" ht="17" x14ac:dyDescent="0.2">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="14" t="s">
         <v>11</v>
       </c>
@@ -775,7 +772,7 @@
     <row r="12" spans="5:8" ht="34" x14ac:dyDescent="0.2">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="14" t="s">
         <v>12</v>
       </c>

--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelcosta/Documents/GitHub/SE2223_59797_60441_60677_60816_60971/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5836A0-CC52-4A41-BE48-EFEFBEC85A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369515B1-1352-7A4D-AE01-45AF5131DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="E2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="E5:H13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,10 +755,9 @@
     </row>
     <row r="10" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E10" s="7"/>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="17"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="5:8" ht="17" x14ac:dyDescent="0.2">

--- a/Scrum Board.xlsx
+++ b/Scrum Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11106"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelcosta/Documents/GitHub/SE2223_59797_60441_60677_60816_60971/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369515B1-1352-7A4D-AE01-45AF5131DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D202669-3D1E-0644-AF02-0963BB1BED9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -167,21 +167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -312,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,46 +308,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9803778C-B6E5-564F-9B1C-009D4D7C451A}">
   <dimension ref="E2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,18 +695,17 @@
     <row r="5" spans="5:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E5" s="11"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="5:8" ht="51" x14ac:dyDescent="0.2">
       <c r="E6" s="11"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="5:8" ht="34" x14ac:dyDescent="0.2">
       <c r="E7" s="11"/>
@@ -755,34 +733,33 @@
     </row>
     <row r="10" spans="5:8" ht="85" x14ac:dyDescent="0.2">
       <c r="E10" s="7"/>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="5:8" ht="17" x14ac:dyDescent="0.2">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="5:8" ht="34" x14ac:dyDescent="0.2">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="5:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
